--- a/PythonResources/Data/Consumption/Sympheny/futu_1569_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1569_hea.xlsx
@@ -591,7 +591,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>56.17732204579998</v>
+        <v>56.17732204579997</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>50.92138603844741</v>
+        <v>50.9213860384474</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -631,7 +631,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>40.52703551024548</v>
+        <v>40.52703551024547</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>29.78774036953914</v>
+        <v>29.78774036953913</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -847,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>15.06607872708698</v>
+        <v>15.06607872708697</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>30.51778032684455</v>
+        <v>30.51778032684454</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>23.86026138419797</v>
+        <v>23.86026138419796</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>20.65101628244077</v>
+        <v>20.65101628244076</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>31.03622299423647</v>
+        <v>31.03622299423646</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>3.291803213348097</v>
+        <v>3.291803213348096</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>28.66779870239868</v>
+        <v>28.66779870239867</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>29.58522828182415</v>
+        <v>29.58522828182414</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>31.68713377110332</v>
+        <v>31.68713377110331</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>7.603552255445408</v>
+        <v>7.603552255445407</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>54.65364571579964</v>
+        <v>54.65364571579963</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>27.62625353810012</v>
+        <v>27.62625353810011</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>57.71594499877204</v>
+        <v>57.71594499877203</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>43.75755756940949</v>
+        <v>43.75755756940948</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>51.55295412676261</v>
+        <v>51.5529541267626</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2223,7 +2223,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>30.1534930257885</v>
+        <v>30.15349302578849</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>1.391217012656566</v>
+        <v>1.391217012656565</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>17.43286182110827</v>
+        <v>17.43286182110826</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2959,7 +2959,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>7.365373422325332</v>
+        <v>7.365373422325331</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -2999,7 +2999,7 @@
         <v>332</v>
       </c>
       <c r="B332">
-        <v>10.55999427925333</v>
+        <v>10.55999427925332</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>7.780068942031136</v>
+        <v>7.780068942031135</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>19.52067059342783</v>
+        <v>19.52067059342782</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>43.69865029063856</v>
+        <v>43.69865029063855</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3695,7 +3695,7 @@
         <v>419</v>
       </c>
       <c r="B419">
-        <v>38.88876840412856</v>
+        <v>38.88876840412855</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -3703,7 +3703,7 @@
         <v>420</v>
       </c>
       <c r="B420">
-        <v>36.36894361371831</v>
+        <v>36.3689436137183</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>37.36274750581893</v>
+        <v>37.36274750581892</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3815,7 +3815,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>7.122329609963479</v>
+        <v>7.122329609963478</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -4007,7 +4007,7 @@
         <v>458</v>
       </c>
       <c r="B458">
-        <v>5.065791517469086</v>
+        <v>5.065791517469085</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>30.69215759484805</v>
+        <v>30.69215759484804</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4199,7 +4199,7 @@
         <v>482</v>
       </c>
       <c r="B482">
-        <v>3.677836385472821</v>
+        <v>3.67783638547282</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>8.984121997267406</v>
+        <v>8.984121997267405</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4303,7 +4303,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>25.04464937274006</v>
+        <v>25.04464937274005</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>514</v>
       </c>
       <c r="B514">
-        <v>38.50425920140487</v>
+        <v>38.50425920140486</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>33.43178566425431</v>
+        <v>33.4317856642543</v>
       </c>
     </row>
     <row r="517" spans="1:2">
@@ -4487,7 +4487,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>26.83630986049233</v>
+        <v>26.83630986049232</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -4495,7 +4495,7 @@
         <v>519</v>
       </c>
       <c r="B519">
-        <v>24.76863506852881</v>
+        <v>24.7686350685288</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>28.64362034170912</v>
+        <v>28.64362034170911</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>40.04024451502898</v>
+        <v>40.04024451502897</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5071,7 +5071,7 @@
         <v>591</v>
       </c>
       <c r="B591">
-        <v>5.132787556907069</v>
+        <v>5.132787556907068</v>
       </c>
     </row>
     <row r="592" spans="1:2">
@@ -5127,7 +5127,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>9.299847427217276</v>
+        <v>9.299847427217273</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -5367,7 +5367,7 @@
         <v>628</v>
       </c>
       <c r="B628">
-        <v>4.287277610369088</v>
+        <v>4.287277610369087</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -5439,7 +5439,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>24.5284926594497</v>
+        <v>24.52849265944969</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>2.329888380964216</v>
+        <v>2.329888380964215</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>44.72058900245067</v>
+        <v>44.72058900245066</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>19.39608609489289</v>
+        <v>19.39608609489288</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -6087,7 +6087,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>2.745316578266673</v>
+        <v>2.745316578266672</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -6183,7 +6183,7 @@
         <v>730</v>
       </c>
       <c r="B730">
-        <v>18.27655472720655</v>
+        <v>18.27655472720654</v>
       </c>
     </row>
     <row r="731" spans="1:2">
@@ -6423,7 +6423,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>6.722463484813939</v>
+        <v>6.722463484813938</v>
       </c>
     </row>
     <row r="761" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>7.240525159855599</v>
+        <v>7.240525159855598</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6447,7 +6447,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>8.771235194783806</v>
+        <v>8.771235194783804</v>
       </c>
     </row>
     <row r="764" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>47.40306821931796</v>
+        <v>47.40306821931795</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6839,7 +6839,7 @@
         <v>812</v>
       </c>
       <c r="B812">
-        <v>20.28353450706331</v>
+        <v>20.2835345070633</v>
       </c>
     </row>
     <row r="813" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>25.75335375843093</v>
+        <v>25.75335375843092</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>7.224728630871752</v>
+        <v>7.224728630871751</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -7007,7 +7007,7 @@
         <v>833</v>
       </c>
       <c r="B833">
-        <v>13.46092864833879</v>
+        <v>13.46092864833878</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -7031,7 +7031,7 @@
         <v>836</v>
       </c>
       <c r="B836">
-        <v>16.44717599677857</v>
+        <v>16.44717599677856</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -7135,7 +7135,7 @@
         <v>849</v>
       </c>
       <c r="B849">
-        <v>29.43136598652694</v>
+        <v>29.43136598652693</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -7183,7 +7183,7 @@
         <v>855</v>
       </c>
       <c r="B855">
-        <v>1.704917321729284</v>
+        <v>1.704917321729283</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>8.033077169707475</v>
+        <v>8.033077169707473</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>44.67692141769013</v>
+        <v>44.67692141769012</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>32.26741442765278</v>
+        <v>32.26741442765277</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7783,7 +7783,7 @@
         <v>930</v>
       </c>
       <c r="B930">
-        <v>13.59679638186219</v>
+        <v>13.59679638186218</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -7999,7 +7999,7 @@
         <v>957</v>
       </c>
       <c r="B957">
-        <v>19.85585594034481</v>
+        <v>19.8558559403448</v>
       </c>
     </row>
     <row r="958" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>23.56809886575647</v>
+        <v>23.56809886575646</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8047,7 +8047,7 @@
         <v>963</v>
       </c>
       <c r="B963">
-        <v>5.69671484949923</v>
+        <v>5.696714849499229</v>
       </c>
     </row>
     <row r="964" spans="1:2">
@@ -8095,7 +8095,7 @@
         <v>969</v>
       </c>
       <c r="B969">
-        <v>53.18623902522229</v>
+        <v>53.18623902522228</v>
       </c>
     </row>
     <row r="970" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>39.66335515931049</v>
+        <v>39.66335515931048</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8151,7 +8151,7 @@
         <v>976</v>
       </c>
       <c r="B976">
-        <v>28.32338161776386</v>
+        <v>28.32338161776385</v>
       </c>
     </row>
     <row r="977" spans="1:2">
@@ -8159,7 +8159,7 @@
         <v>977</v>
       </c>
       <c r="B977">
-        <v>28.99293171268957</v>
+        <v>28.99293171268956</v>
       </c>
     </row>
     <row r="978" spans="1:2">
@@ -8175,7 +8175,7 @@
         <v>979</v>
       </c>
       <c r="B979">
-        <v>30.56877468757163</v>
+        <v>30.56877468757162</v>
       </c>
     </row>
     <row r="980" spans="1:2">
@@ -8191,7 +8191,7 @@
         <v>981</v>
       </c>
       <c r="B981">
-        <v>34.60612131617032</v>
+        <v>34.60612131617031</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>15.20672351854056</v>
+        <v>15.20672351854055</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8487,7 +8487,7 @@
         <v>1018</v>
       </c>
       <c r="B1018">
-        <v>39.31430755226483</v>
+        <v>39.31430755226482</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
@@ -8519,7 +8519,7 @@
         <v>1022</v>
       </c>
       <c r="B1022">
-        <v>23.64271475219965</v>
+        <v>23.64271475219964</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>22.12985274352592</v>
+        <v>22.12985274352591</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>19.5372291071122</v>
+        <v>19.53722910711219</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>9.98633702817761</v>
+        <v>9.986337028177608</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>38.29764411914862</v>
+        <v>38.29764411914861</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9087,7 +9087,7 @@
         <v>1093</v>
       </c>
       <c r="B1093">
-        <v>6.827324302446968</v>
+        <v>6.827324302446967</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>33.48512459329067</v>
+        <v>33.48512459329066</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>2.761936636869158</v>
+        <v>2.761936636869157</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10119,7 +10119,7 @@
         <v>1222</v>
       </c>
       <c r="B1222">
-        <v>6.555647449607901</v>
+        <v>6.5556474496079</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>31.02743086307663</v>
+        <v>31.02743086307662</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>1245</v>
       </c>
       <c r="B1245">
-        <v>16.61768472707174</v>
+        <v>16.61768472707173</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10455,7 +10455,7 @@
         <v>1264</v>
       </c>
       <c r="B1264">
-        <v>12.74703690526362</v>
+        <v>12.74703690526361</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>30.03128240266672</v>
+        <v>30.03128240266671</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>10.88714947971099</v>
+        <v>10.88714947971098</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11079,7 +11079,7 @@
         <v>1342</v>
       </c>
       <c r="B1342">
-        <v>7.493738537259001</v>
+        <v>7.493738537259</v>
       </c>
     </row>
     <row r="1343" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>8.344553069596753</v>
+        <v>8.344553069596751</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11375,7 +11375,7 @@
         <v>1379</v>
       </c>
       <c r="B1379">
-        <v>5.487843120245289</v>
+        <v>5.487843120245288</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>23.82922516120373</v>
+        <v>23.82922516120372</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11567,7 +11567,7 @@
         <v>1403</v>
       </c>
       <c r="B1403">
-        <v>9.87464765534377</v>
+        <v>9.874647655343768</v>
       </c>
     </row>
     <row r="1404" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>58.73993520785478</v>
+        <v>58.73993520785477</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>41.67089177414071</v>
+        <v>41.6708917741407</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>24.93041028186987</v>
+        <v>24.93041028186986</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>7.865733606631847</v>
+        <v>7.865733606631846</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>52.21822538452386</v>
+        <v>52.21822538452385</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>53.42597113484727</v>
+        <v>53.42597113484726</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11927,7 +11927,7 @@
         <v>1448</v>
       </c>
       <c r="B1448">
-        <v>46.66189156254342</v>
+        <v>46.66189156254341</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>21.48351387486219</v>
+        <v>21.48351387486218</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12023,7 +12023,7 @@
         <v>1460</v>
       </c>
       <c r="B1460">
-        <v>20.97269105447546</v>
+        <v>20.97269105447545</v>
       </c>
     </row>
     <row r="1461" spans="1:2">
@@ -12151,7 +12151,7 @@
         <v>1476</v>
       </c>
       <c r="B1476">
-        <v>30.02102491631357</v>
+        <v>30.02102491631356</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>4.638171564958317</v>
+        <v>4.638171564958316</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12567,7 +12567,7 @@
         <v>1528</v>
       </c>
       <c r="B1528">
-        <v>1.370757723447618</v>
+        <v>1.370757723447617</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>7.045427769418741</v>
+        <v>7.04542776941874</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>9.063485634536899</v>
+        <v>9.063485634536898</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>6.138167755034814</v>
+        <v>6.138167755034813</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>6.456853202475162</v>
+        <v>6.456853202475161</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>7.05172879674996</v>
+        <v>7.051728796749959</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13143,7 +13143,7 @@
         <v>1600</v>
       </c>
       <c r="B1600">
-        <v>5.127072671653173</v>
+        <v>5.127072671653172</v>
       </c>
     </row>
     <row r="1601" spans="1:2">
@@ -13183,7 +13183,7 @@
         <v>1605</v>
       </c>
       <c r="B1605">
-        <v>12.03783429880703</v>
+        <v>12.03783429880702</v>
       </c>
     </row>
     <row r="1606" spans="1:2">
@@ -13247,7 +13247,7 @@
         <v>1613</v>
       </c>
       <c r="B1613">
-        <v>31.88583593531571</v>
+        <v>31.8858359353157</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>0.5805561433258054</v>
+        <v>0.5805561433258053</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>8.196845266111435</v>
+        <v>8.196845266111433</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>5.121650857437938</v>
+        <v>5.121650857437937</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13695,7 +13695,7 @@
         <v>1669</v>
       </c>
       <c r="B1669">
-        <v>2.599320309647137</v>
+        <v>2.599320309647136</v>
       </c>
     </row>
     <row r="1670" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>5.547981297378597</v>
+        <v>5.547981297378596</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>0.3949308088584825</v>
+        <v>0.3949308088584824</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -14231,7 +14231,7 @@
         <v>1736</v>
       </c>
       <c r="B1736">
-        <v>7.030217382512217</v>
+        <v>7.030217382512216</v>
       </c>
     </row>
     <row r="1737" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>21.65733430789223</v>
+        <v>21.65733430789222</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>8.904934202621112</v>
+        <v>8.90493420262111</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14839,7 +14839,7 @@
         <v>1812</v>
       </c>
       <c r="B1812">
-        <v>8.429895356054937</v>
+        <v>8.429895356054935</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -14887,7 +14887,7 @@
         <v>1818</v>
       </c>
       <c r="B1818">
-        <v>0.961929485935814</v>
+        <v>0.9619294859358138</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -15007,7 +15007,7 @@
         <v>1833</v>
       </c>
       <c r="B1833">
-        <v>24.64821217874286</v>
+        <v>24.64821217874285</v>
       </c>
     </row>
     <row r="1834" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>11.19625150418711</v>
+        <v>11.1962515041871</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>17.21891996288549</v>
+        <v>17.21891996288548</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15599,7 +15599,7 @@
         <v>1907</v>
       </c>
       <c r="B1907">
-        <v>7.879420024137332</v>
+        <v>7.879420024137331</v>
       </c>
     </row>
     <row r="1908" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>18.26345445177839</v>
+        <v>18.26345445177838</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>23.67125987136526</v>
+        <v>23.67125987136525</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>0.8992327986349924</v>
+        <v>0.8992327986349923</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16527,7 +16527,7 @@
         <v>2023</v>
       </c>
       <c r="B2023">
-        <v>9.430527803356368</v>
+        <v>9.430527803356366</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>7.495086664036843</v>
+        <v>7.495086664036842</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16559,7 +16559,7 @@
         <v>2027</v>
       </c>
       <c r="B2027">
-        <v>0.6198892074245446</v>
+        <v>0.6198892074245445</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16887,7 +16887,7 @@
         <v>2068</v>
       </c>
       <c r="B2068">
-        <v>5.359741769246416</v>
+        <v>5.359741769246415</v>
       </c>
     </row>
     <row r="2069" spans="1:2">
@@ -16903,7 +16903,7 @@
         <v>2070</v>
       </c>
       <c r="B2070">
-        <v>7.878101204463356</v>
+        <v>7.878101204463355</v>
       </c>
     </row>
     <row r="2071" spans="1:2">
@@ -16919,7 +16919,7 @@
         <v>2072</v>
       </c>
       <c r="B2072">
-        <v>3.172992214274788</v>
+        <v>3.172992214274787</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>22.98937148571191</v>
+        <v>22.9893714857119</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17335,7 +17335,7 @@
         <v>2124</v>
       </c>
       <c r="B2124">
-        <v>2.73666512120539</v>
+        <v>2.736665121205389</v>
       </c>
     </row>
     <row r="2125" spans="1:2">
@@ -18303,7 +18303,7 @@
         <v>2245</v>
       </c>
       <c r="B2245">
-        <v>5.51923102848592</v>
+        <v>5.519231028485919</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>4.14200229650466</v>
+        <v>4.142002296504659</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>7.747625978051325</v>
+        <v>7.747625978051324</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>7.061048455779391</v>
+        <v>7.06104845577939</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>0.4352456609367371</v>
+        <v>0.435245660936737</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>8.527341476409834</v>
+        <v>8.527341476409832</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>6.300411882037736</v>
+        <v>6.300411882037735</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23623,7 +23623,7 @@
         <v>2910</v>
       </c>
       <c r="B2910">
-        <v>9.869108612713072</v>
+        <v>9.86910861271307</v>
       </c>
     </row>
     <row r="2911" spans="1:2">
@@ -50679,7 +50679,7 @@
         <v>6292</v>
       </c>
       <c r="B6292">
-        <v>0.5937912314317517</v>
+        <v>0.5937912314317516</v>
       </c>
     </row>
     <row r="6293" spans="1:2">
@@ -53207,7 +53207,7 @@
         <v>6608</v>
       </c>
       <c r="B6608">
-        <v>6.923451603127889</v>
+        <v>6.923451603127888</v>
       </c>
     </row>
     <row r="6609" spans="1:2">
@@ -55351,7 +55351,7 @@
         <v>6876</v>
       </c>
       <c r="B6876">
-        <v>0.8478662376888184</v>
+        <v>0.8478662376888183</v>
       </c>
     </row>
     <row r="6877" spans="1:2">
@@ -55503,7 +55503,7 @@
         <v>6895</v>
       </c>
       <c r="B6895">
-        <v>18.6062303385967</v>
+        <v>18.60623033859669</v>
       </c>
     </row>
     <row r="6896" spans="1:2">
@@ -55711,7 +55711,7 @@
         <v>6921</v>
       </c>
       <c r="B6921">
-        <v>3.722090112310684</v>
+        <v>3.722090112310683</v>
       </c>
     </row>
     <row r="6922" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>9.702380498818632</v>
+        <v>9.702380498818631</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58383,7 +58383,7 @@
         <v>7255</v>
       </c>
       <c r="B7255">
-        <v>15.92501132719565</v>
+        <v>15.92501132719564</v>
       </c>
     </row>
     <row r="7256" spans="1:2">
@@ -59071,7 +59071,7 @@
         <v>7341</v>
       </c>
       <c r="B7341">
-        <v>2.085103726632714</v>
+        <v>2.085103726632713</v>
       </c>
     </row>
     <row r="7342" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>31.34072380340561</v>
+        <v>31.3407238034056</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59183,7 +59183,7 @@
         <v>7355</v>
       </c>
       <c r="B7355">
-        <v>15.49050420527634</v>
+        <v>15.49050420527633</v>
       </c>
     </row>
     <row r="7356" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>4.785293226366313</v>
+        <v>4.785293226366312</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59735,7 +59735,7 @@
         <v>7424</v>
       </c>
       <c r="B7424">
-        <v>3.002190412942955</v>
+        <v>3.002190412942954</v>
       </c>
     </row>
     <row r="7425" spans="1:2">
@@ -60743,7 +60743,7 @@
         <v>7550</v>
       </c>
       <c r="B7550">
-        <v>7.769899376989587</v>
+        <v>7.769899376989586</v>
       </c>
     </row>
     <row r="7551" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>8.842597992697844</v>
+        <v>8.842597992697842</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61159,7 +61159,7 @@
         <v>7602</v>
       </c>
       <c r="B7602">
-        <v>5.390103928851731</v>
+        <v>5.39010392885173</v>
       </c>
     </row>
     <row r="7603" spans="1:2">
@@ -61327,7 +61327,7 @@
         <v>7623</v>
       </c>
       <c r="B7623">
-        <v>7.656480885027646</v>
+        <v>7.656480885027645</v>
       </c>
     </row>
     <row r="7624" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>6.227232043683998</v>
+        <v>6.227232043683997</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>7.990112955439722</v>
+        <v>7.990112955439721</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61695,7 +61695,7 @@
         <v>7669</v>
       </c>
       <c r="B7669">
-        <v>8.28467865639824</v>
+        <v>8.284678656398238</v>
       </c>
     </row>
     <row r="7670" spans="1:2">
@@ -61895,7 +61895,7 @@
         <v>7694</v>
       </c>
       <c r="B7694">
-        <v>6.234177827300272</v>
+        <v>6.234177827300271</v>
       </c>
     </row>
     <row r="7695" spans="1:2">
@@ -63599,7 +63599,7 @@
         <v>7907</v>
       </c>
       <c r="B7907">
-        <v>8.563037528918786</v>
+        <v>8.563037528918784</v>
       </c>
     </row>
     <row r="7908" spans="1:2">
@@ -64319,7 +64319,7 @@
         <v>7997</v>
       </c>
       <c r="B7997">
-        <v>7.671896421661232</v>
+        <v>7.671896421661231</v>
       </c>
     </row>
     <row r="7998" spans="1:2">
@@ -64351,7 +64351,7 @@
         <v>8001</v>
       </c>
       <c r="B8001">
-        <v>9.291670745238624</v>
+        <v>9.291670745238619</v>
       </c>
     </row>
     <row r="8002" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>5.535027557469766</v>
+        <v>5.535027557469765</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>26.40224234513101</v>
+        <v>26.402242345131</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>22.10573299704409</v>
+        <v>22.10573299704408</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>9.381409097276729</v>
+        <v>9.381409097276723</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -65407,7 +65407,7 @@
         <v>8133</v>
       </c>
       <c r="B8133">
-        <v>5.558150862420146</v>
+        <v>5.558150862420145</v>
       </c>
     </row>
     <row r="8134" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>35.49529884746884</v>
+        <v>35.49529884746883</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>40.30518073397884</v>
+        <v>40.30518073397883</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65687,7 +65687,7 @@
         <v>8168</v>
       </c>
       <c r="B8168">
-        <v>39.50275223012408</v>
+        <v>39.50275223012407</v>
       </c>
     </row>
     <row r="8169" spans="1:2">
@@ -65727,7 +65727,7 @@
         <v>8173</v>
       </c>
       <c r="B8173">
-        <v>27.20918414298116</v>
+        <v>27.20918414298115</v>
       </c>
     </row>
     <row r="8174" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>24.44570009102787</v>
+        <v>24.44570009102786</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65839,7 +65839,7 @@
         <v>8187</v>
       </c>
       <c r="B8187">
-        <v>1.406459637377343</v>
+        <v>1.406459637377342</v>
       </c>
     </row>
     <row r="8188" spans="1:2">
@@ -65863,7 +65863,7 @@
         <v>8190</v>
       </c>
       <c r="B8190">
-        <v>6.536509910783315</v>
+        <v>6.536509910783314</v>
       </c>
     </row>
     <row r="8191" spans="1:2">
@@ -65871,7 +65871,7 @@
         <v>8191</v>
       </c>
       <c r="B8191">
-        <v>7.147269955353559</v>
+        <v>7.147269955353558</v>
       </c>
     </row>
     <row r="8192" spans="1:2">
@@ -65879,7 +65879,7 @@
         <v>8192</v>
       </c>
       <c r="B8192">
-        <v>47.81043696305723</v>
+        <v>47.81043696305722</v>
       </c>
     </row>
     <row r="8193" spans="1:2">
@@ -65911,7 +65911,7 @@
         <v>8196</v>
       </c>
       <c r="B8196">
-        <v>33.8010551729676</v>
+        <v>33.80105517296759</v>
       </c>
     </row>
     <row r="8197" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>26.26291637335141</v>
+        <v>26.2629163733514</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>23.40632365241541</v>
+        <v>23.4063236524154</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>5.677108397012786</v>
+        <v>5.677108397012785</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>25.2463408615468</v>
+        <v>25.24634086154679</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>42.27461811378308</v>
+        <v>42.27461811378307</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>36.06092595208524</v>
+        <v>36.06092595208523</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>31.84890898444438</v>
+        <v>31.84890898444437</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66447,7 +66447,7 @@
         <v>8263</v>
       </c>
       <c r="B8263">
-        <v>34.86841989577222</v>
+        <v>34.86841989577221</v>
       </c>
     </row>
     <row r="8264" spans="1:2">
@@ -66455,7 +66455,7 @@
         <v>8264</v>
       </c>
       <c r="B8264">
-        <v>33.15160975129406</v>
+        <v>33.15160975129405</v>
       </c>
     </row>
     <row r="8265" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>37.78799358291654</v>
+        <v>37.78799358291653</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66815,7 +66815,7 @@
         <v>8309</v>
       </c>
       <c r="B8309">
-        <v>41.68876910749905</v>
+        <v>41.68876910749904</v>
       </c>
     </row>
     <row r="8310" spans="1:2">
@@ -66839,7 +66839,7 @@
         <v>8312</v>
       </c>
       <c r="B8312">
-        <v>39.89781199023957</v>
+        <v>39.89781199023956</v>
       </c>
     </row>
     <row r="8313" spans="1:2">
@@ -67239,7 +67239,7 @@
         <v>8362</v>
       </c>
       <c r="B8362">
-        <v>30.16873271979889</v>
+        <v>30.16873271979888</v>
       </c>
     </row>
     <row r="8363" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>35.25820437719181</v>
+        <v>35.2582043771918</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67479,7 +67479,7 @@
         <v>8392</v>
       </c>
       <c r="B8392">
-        <v>9.637699720586072</v>
+        <v>9.63769972058607</v>
       </c>
     </row>
     <row r="8393" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>8.337021143903156</v>
+        <v>8.337021143903154</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67663,7 +67663,7 @@
         <v>8415</v>
       </c>
       <c r="B8415">
-        <v>4.557958021676707</v>
+        <v>4.557958021676706</v>
       </c>
     </row>
     <row r="8416" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>4.569036106938106</v>
+        <v>4.569036106938105</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>7.162392420948484</v>
+        <v>7.162392420948483</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67863,7 +67863,7 @@
         <v>8440</v>
       </c>
       <c r="B8440">
-        <v>0.4517015997575717</v>
+        <v>0.4517015997575716</v>
       </c>
     </row>
     <row r="8441" spans="1:2">
@@ -67991,7 +67991,7 @@
         <v>8456</v>
       </c>
       <c r="B8456">
-        <v>21.89047231914733</v>
+        <v>21.89047231914732</v>
       </c>
     </row>
     <row r="8457" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>7.967546485462798</v>
+        <v>7.967546485462797</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68079,7 +68079,7 @@
         <v>8467</v>
       </c>
       <c r="B8467">
-        <v>8.563711592307707</v>
+        <v>8.563711592307705</v>
       </c>
     </row>
     <row r="8468" spans="1:2">
@@ -68103,7 +68103,7 @@
         <v>8470</v>
       </c>
       <c r="B8470">
-        <v>14.90201755964436</v>
+        <v>14.90201755964435</v>
       </c>
     </row>
     <row r="8471" spans="1:2">
@@ -68351,7 +68351,7 @@
         <v>8501</v>
       </c>
       <c r="B8501">
-        <v>42.0477811298592</v>
+        <v>42.04778112985919</v>
       </c>
     </row>
     <row r="8502" spans="1:2">
@@ -68463,7 +68463,7 @@
         <v>8515</v>
       </c>
       <c r="B8515">
-        <v>17.81142168174713</v>
+        <v>17.81142168174712</v>
       </c>
     </row>
     <row r="8516" spans="1:2">
@@ -68575,7 +68575,7 @@
         <v>8529</v>
       </c>
       <c r="B8529">
-        <v>45.74721685088136</v>
+        <v>45.74721685088135</v>
       </c>
     </row>
     <row r="8530" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>28.21462295531664</v>
+        <v>28.21462295531663</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>31.00808817452498</v>
+        <v>31.00808817452497</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>23.7905690912043</v>
+        <v>23.79056909120429</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69055,7 +69055,7 @@
         <v>8589</v>
       </c>
       <c r="B8589">
-        <v>26.7204588789095</v>
+        <v>26.72045887890949</v>
       </c>
     </row>
     <row r="8590" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>34.26234898782056</v>
+        <v>34.26234898782055</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -70119,7 +70119,7 @@
         <v>8722</v>
       </c>
       <c r="B8722">
-        <v>8.406303137442698</v>
+        <v>8.406303137442697</v>
       </c>
     </row>
     <row r="8723" spans="1:2">
